--- a/normalized_inputs/class_MEDICAL/extracted_offline_sheet.xlsx
+++ b/normalized_inputs/class_MEDICAL/extracted_offline_sheet.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MEDICAL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="medical" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG12"/>
+  <dimension ref="A1:BG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,7 +731,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -745,22 +745,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -785,22 +785,22 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -810,32 +810,32 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -850,27 +850,27 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -895,27 +895,27 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -925,22 +925,22 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BE2" t="n">
@@ -995,14 +995,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>274600</v>
+        <v>287200</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1016,27 +1016,27 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1046,32 +1046,32 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1091,22 +1091,22 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1121,27 +1121,27 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1156,37 +1156,37 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1196,52 +1196,52 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BC3" t="inlineStr">
@@ -1251,14 +1251,14 @@
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BE3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BF3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG3" t="n">
         <v>0</v>
@@ -1266,73 +1266,73 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253411</v>
+        <v>279000</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1347,22 +1347,22 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1392,27 +1392,27 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1427,27 +1427,27 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1457,22 +1457,22 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
@@ -1482,22 +1482,22 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
@@ -1512,24 +1512,24 @@
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BE4" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BF4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BG4" t="n">
         <v>0</v>
@@ -1537,28 +1537,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>269000</v>
+        <v>754000</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1588,62 +1588,62 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1683,52 +1683,52 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1758,12 +1758,12 @@
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1778,29 +1778,29 @@
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="BE5" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="BF5" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="BG5" t="n">
         <v>0</v>
@@ -1808,170 +1808,274 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A</t>
-        </is>
-      </c>
+        <v>276200</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1072</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BE6" t="n">
+        <v>18</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>32</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1979,7 +2083,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> B</t>
+          <t xml:space="preserve"> A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1987,28 +2091,28 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -2029,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -2050,31 +2154,31 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7" t="n">
         <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -2083,13 +2187,13 @@
         <v>1</v>
       </c>
       <c r="AM7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP7" t="n">
         <v>1</v>
@@ -2101,34 +2205,34 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
@@ -2146,7 +2250,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C</t>
+          <t xml:space="preserve"> B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -2154,154 +2258,154 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>1</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
@@ -2313,7 +2417,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> D</t>
+          <t xml:space="preserve"> C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -2327,43 +2431,43 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2378,37 +2482,37 @@
         <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -2420,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -2432,25 +2536,25 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
@@ -2459,13 +2563,13 @@
         <v>2</v>
       </c>
       <c r="BA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
@@ -2480,7 +2584,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CORRECT</t>
+          <t xml:space="preserve"> D</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -2488,97 +2592,97 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>3</v>
       </c>
       <c r="AB10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2587,52 +2691,52 @@
         <v>3</v>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD10" t="n">
         <v>0</v>
@@ -2647,7 +2751,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INCORRECT</t>
+          <t>CORRECT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -2655,28 +2759,28 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
@@ -2685,124 +2789,124 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
         <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP11" t="n">
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
@@ -2814,7 +2918,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UNANSWERED</t>
+          <t>INCORRECT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2822,112 +2926,112 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -2936,37 +3040,37 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA12" t="n">
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD12" t="n">
         <v>0</v>
@@ -2974,6 +3078,173 @@
       <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UNANSWERED</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
